--- a/medicine/Enfance/Prix_Branford_Boase/Prix_Branford_Boase.xlsx
+++ b/medicine/Enfance/Prix_Branford_Boase/Prix_Branford_Boase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Branford Boase (Branford Boase award) est un prix littéraire britannique.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2000, le prix Branford Boase est attribué annuellement à un auteur de littérature de jeunesse publiant son premier ouvrage, ainsi qu'à son éditeur. Il est nommé en mémoire de l'auteur Henrietta Branford et de son éditeur Wendy Boase, décédées en 1999[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2000, le prix Branford Boase est attribué annuellement à un auteur de littérature de jeunesse publiant son premier ouvrage, ainsi qu'à son éditeur. Il est nommé en mémoire de l'auteur Henrietta Branford et de son éditeur Wendy Boase, décédées en 1999.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2000 : Katherine Roberts (en), Song Quest (Barry Cunningham, The Chicken House)
 2001 : Marcus Sedgwick (en), Floodland (Fiona Kennedy, Orion Children's Books)
